--- a/SuppXLS/Scen_AlternativeCosts.xlsx
+++ b/SuppXLS/Scen_AlternativeCosts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B74B79-C252-4624-A17A-2E78235D6130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D71A9-F323-4215-94C6-060C5D166497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cost_MinOil" sheetId="2" r:id="rId1"/>
+    <sheet name="Bounds_MinOil" sheetId="4" r:id="rId1"/>
+    <sheet name="Cost_MinOil" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +37,406 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{9460DF61-240D-4CEF-B56B-CFBEA887AF28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{EF00E3A7-CD11-4FBD-B3A6-89C395E20AD6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{E06FB355-638D-48E0-BBBA-C02F91045844}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{81EC02AC-A5FC-41E2-8544-140761964C32}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{CAD3C408-7D4C-4590-9A64-9AF715426323}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{36DE8900-B03A-4ABE-B521-3FECF4415442}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{88F80E46-0EEC-45A3-9A0A-28E4D9187D22}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{0698BDEA-6C6E-4832-8362-02B7300AD1D9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{4E518C2A-FA45-49C1-BA7A-4B7B31C0814F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
@@ -55,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -112,6 +513,15 @@
   </si>
   <si>
     <t>ALLREGIONS</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -121,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +593,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +637,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,6 +661,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -263,7 +694,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,12 +706,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -317,6 +751,114 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C891EE-7BA1-4EFA-B486-985E5AB5259D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2933699"/>
+          <a:ext cx="4640580" cy="577215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Declare demand projection based on BY demand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> collected in the BY_Data sheet.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -744,11 +1286,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8600E1A-8E94-4878-89AC-137A30552332}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>2006</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2149.0016000000001</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2149.0016000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>2010</v>
+      </c>
+      <c r="F5" s="11">
+        <f>+F4*1.05</f>
+        <v>2256.4516800000001</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2256.4516800000001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" ref="F6" si="0">+F5*1.05</f>
+        <v>2369.2742640000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2369.2742640000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="11">
+        <f>+F6*1.05</f>
+        <v>2487.7379772000004</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2487.7379772000004</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2006</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>2010</v>
+      </c>
+      <c r="F9" s="11">
+        <f>+F8*1.05</f>
+        <v>10.5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>2015</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10" si="1">+F9*1.05</f>
+        <v>11.025</v>
+      </c>
+      <c r="G10" s="11">
+        <v>11.025</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="11">
+        <f>+F10*1.05</f>
+        <v>11.576250000000002</v>
+      </c>
+      <c r="G11" s="11">
+        <v>11.576250000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -820,19 +1623,19 @@
       <c r="E4">
         <v>2006</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>7.3599999999999994</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>7.3599999999999994</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>7.3599999999999994</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="7">
@@ -849,22 +1652,22 @@
       <c r="E5">
         <v>2010</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f>+F4*1.05</f>
         <v>7.7279999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f>+G4*1.05</f>
         <v>7.7279999999999998</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f>+H4*1.05</f>
         <v>7.7279999999999998</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="7"/>
@@ -877,22 +1680,22 @@
       <c r="E6">
         <v>2015</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" ref="F6:H6" si="0">+F5*1.05</f>
         <v>8.1143999999999998</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>8.1143999999999998</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>8.1143999999999998</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="7"/>
@@ -905,22 +1708,22 @@
       <c r="E7">
         <v>2020</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f>+F6*1.05</f>
         <v>8.5201200000000004</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f>+G6*1.05</f>
         <v>8.5201200000000004</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f>+H6*1.05</f>
         <v>8.5201200000000004</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="7"/>
@@ -933,19 +1736,19 @@
       <c r="E8">
         <v>2006</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>8</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -956,22 +1759,22 @@
       <c r="E9">
         <v>2010</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>+F8*1.04</f>
         <v>8.32</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f>+G8*1.04</f>
         <v>8.32</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <f>+H8*1.04</f>
         <v>8.32</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -982,22 +1785,22 @@
       <c r="E10">
         <v>2015</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" ref="F10:H11" si="1">+F9*1.04</f>
         <v>8.6528000000000009</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>8.6528000000000009</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>8.6528000000000009</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1008,22 +1811,22 @@
       <c r="E11">
         <v>2020</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>8.9989120000000007</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>8.9989120000000007</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>8.9989120000000007</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1034,19 +1837,19 @@
       <c r="E12">
         <v>2006</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>8</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>8</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>8</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1057,22 +1860,22 @@
       <c r="E13">
         <v>2010</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>+F12*1.04</f>
         <v>8.32</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f>+G12*1.04</f>
         <v>8.32</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <f>+H12*1.04</f>
         <v>8.32</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1083,22 +1886,22 @@
       <c r="E14">
         <v>2015</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" ref="F14:H15" si="2">+F13*1.04</f>
         <v>8.6528000000000009</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" si="2"/>
         <v>8.6528000000000009</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <f t="shared" si="2"/>
         <v>8.6528000000000009</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1109,22 +1912,22 @@
       <c r="E15">
         <v>2020</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="2"/>
         <v>8.9989120000000007</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f t="shared" si="2"/>
         <v>8.9989120000000007</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <f t="shared" si="2"/>
         <v>8.9989120000000007</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>17</v>
       </c>
     </row>
